--- a/nlp/data/VCHAINS/5000049936_VCHAINS.xlsx
+++ b/nlp/data/VCHAINS/5000049936_VCHAINS.xlsx
@@ -14,16 +14,16 @@
     <x:definedName name="CriteriaLabels">'Value Chains'!$A$3:$A$4</x:definedName>
     <x:definedName name="CriteriaValues">'Value Chains'!$B$3:$B$4</x:definedName>
     <x:definedName name="ColumnHeader">'Value Chains'!$A$6:$N$6</x:definedName>
-    <x:definedName name="Data">'Value Chains'!$A$7:$N$11</x:definedName>
-    <x:definedName name="DataConfidenceScore">'Value Chains'!$G$7:$G$11</x:definedName>
-    <x:definedName name="DataRevenue">'Value Chains'!$I$7:$I$11</x:definedName>
+    <x:definedName name="Data">'Value Chains'!$A$7:$N$14</x:definedName>
+    <x:definedName name="DataConfidenceScore">'Value Chains'!$G$7:$G$14</x:definedName>
+    <x:definedName name="DataRevenue">'Value Chains'!$I$7:$I$14</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <x:si>
     <x:t>Value Chains</x:t>
   </x:si>
@@ -31,7 +31,7 @@
     <x:t>Company Name</x:t>
   </x:si>
   <x:si>
-    <x:t>Lite-On Technology Corp</x:t>
+    <x:t>NTELOS Holdings Corp</x:t>
   </x:si>
   <x:si>
     <x:t>Company Id</x:t>
@@ -76,55 +76,61 @@
     <x:t>Implied Rating</x:t>
   </x:si>
   <x:si>
-    <x:t>Apple Inc</x:t>
+    <x:t>Sprint Communications Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Private</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>United States of America</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wireless Telecommunications Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sprint Spectrum LLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Business Support Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lte Partners1 LLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Investment Management &amp; Fund Operators</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Avaya Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Supplier</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Communications &amp; Networking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TeleCommunication Systems Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alcatel Lucent SA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>France</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cellco Partnership</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shenandoah Telecommunications Co</x:t>
   </x:si>
   <x:si>
     <x:t>Public</x:t>
   </x:si>
   <x:si>
-    <x:t>Customer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>United States of America</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Phones &amp; Handheld Devices</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roku Inc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Supplier</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Entertainment Production</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cypress Semiconductor Corp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Private</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Semiconductors</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BBB-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Optomec Inc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Electronic Equipment &amp; Parts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kioxia Holdings Corp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Japan</x:t>
+    <x:t>BBB+</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -578,24 +584,24 @@
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
     <x:pageSetUpPr fitToPage="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:N11"/>
+  <x:dimension ref="A1:N14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="15.700625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.300625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="33.340624999999996" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="7.830625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="12.710625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="23.040625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="26.790625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="39.150625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="20.190625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="16.840625000000003" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="21.920625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="10.410625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="14.180625000000001" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="14.880625" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="18.300625" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="9.570625" style="0" customWidth="1"/>
     <x:col min="14" max="14" width="14.480625" style="0" customWidth="1"/>
   </x:cols>
@@ -605,7 +611,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="2">
-        <x:v>44595.9291666667</x:v>
+        <x:v>44598.3965277778</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:14" customFormat="1" ht="32.26" customHeight="1">
@@ -639,7 +645,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="5" t="n">
-        <x:v>4295891508</x:v>
+        <x:v>5000049936</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14">
@@ -688,7 +694,7 @@
     </x:row>
     <x:row r="7" spans="1:14">
       <x:c r="A7" s="5" t="n">
-        <x:v>4295905573</x:v>
+        <x:v>4295904966</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
         <x:v>17</x:v>
@@ -706,143 +712,131 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G7" s="7" t="n">
-        <x:v>1</x:v>
+        <x:v>0.999797447345298</x:v>
       </x:c>
       <x:c r="H7" s="8">
-        <x:v>43132</x:v>
+        <x:v>43064</x:v>
       </x:c>
       <x:c r="I7" s="9" t="n">
-        <x:v>1463</x:v>
+        <x:v>1534</x:v>
       </x:c>
       <x:c r="J7" s="5" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K7" s="5" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L7" s="5" t="n">
-        <x:v>365817000000</x:v>
-      </x:c>
-      <x:c r="M7" s="5" t="n">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="N7" s="5" t="s">
-        <x:v>22</x:v>
-      </x:c>
+        <x:v>16891000000</x:v>
+      </x:c>
+      <x:c r="M7" s="5" t="s"/>
+      <x:c r="N7" s="5" t="s"/>
     </x:row>
     <x:row r="8" spans="1:14">
       <x:c r="A8" s="5" t="n">
-        <x:v>4297900917</x:v>
+        <x:v>4298219417</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D8" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E8" s="5" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F8" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G8" s="7" t="n">
-        <x:v>0.55678434528</x:v>
+        <x:v>0.677069556096</x:v>
       </x:c>
       <x:c r="H8" s="8">
-        <x:v>43062</x:v>
+        <x:v>42506</x:v>
       </x:c>
       <x:c r="I8" s="9" t="n">
-        <x:v>1533</x:v>
+        <x:v>2092</x:v>
       </x:c>
       <x:c r="J8" s="5" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K8" s="5" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L8" s="5" t="n">
-        <x:v>1778388000</x:v>
-      </x:c>
-      <x:c r="M8" s="5" t="n">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="N8" s="5" t="s">
-        <x:v>22</x:v>
-      </x:c>
+        <x:v>2100822638</x:v>
+      </x:c>
+      <x:c r="M8" s="5" t="s"/>
+      <x:c r="N8" s="5" t="s"/>
     </x:row>
     <x:row r="9" spans="1:14">
       <x:c r="A9" s="5" t="n">
-        <x:v>4295903116</x:v>
+        <x:v>5000450135</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D9" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E9" s="5" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F9" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G9" s="7" t="n">
-        <x:v>0.30366456</x:v>
+        <x:v>0.587244</x:v>
       </x:c>
       <x:c r="H9" s="8">
-        <x:v>41156</x:v>
+        <x:v>42506</x:v>
       </x:c>
       <x:c r="I9" s="9" t="n">
-        <x:v>3439</x:v>
+        <x:v>2092</x:v>
       </x:c>
       <x:c r="J9" s="5" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K9" s="5" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L9" s="5" t="n">
-        <x:v>2205314000</x:v>
-      </x:c>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L9" s="5" t="s"/>
       <x:c r="M9" s="5" t="s"/>
-      <x:c r="N9" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
+      <x:c r="N9" s="5" t="s"/>
     </x:row>
     <x:row r="10" spans="1:14">
       <x:c r="A10" s="5" t="n">
-        <x:v>4297422171</x:v>
+        <x:v>4295901485</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>30</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D10" s="5" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="D10" s="5" t="s">
-        <x:v>24</x:v>
       </x:c>
       <x:c r="E10" s="5" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F10" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G10" s="7" t="n">
-        <x:v>0.29733864</x:v>
+        <x:v>0.296766</x:v>
       </x:c>
       <x:c r="H10" s="8">
-        <x:v>42452</x:v>
+        <x:v>41135</x:v>
       </x:c>
       <x:c r="I10" s="9" t="n">
-        <x:v>2143</x:v>
+        <x:v>3463</x:v>
       </x:c>
       <x:c r="J10" s="5" t="n">
         <x:v>1</x:v>
@@ -851,48 +845,174 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L10" s="5" t="n">
-        <x:v>8007154</x:v>
+        <x:v>4081000000</x:v>
       </x:c>
       <x:c r="M10" s="5" t="s"/>
       <x:c r="N10" s="5" t="s"/>
     </x:row>
     <x:row r="11" spans="1:14">
       <x:c r="A11" s="5" t="n">
-        <x:v>5068663189</x:v>
+        <x:v>4295900478</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D11" s="5" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D11" s="5" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="E11" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F11" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G11" s="7" t="n">
-        <x:v>0.2897888</x:v>
+        <x:v>0.2997136</x:v>
       </x:c>
       <x:c r="H11" s="8">
-        <x:v>43710</x:v>
+        <x:v>41051</x:v>
       </x:c>
       <x:c r="I11" s="9" t="n">
-        <x:v>885</x:v>
+        <x:v>3547</x:v>
       </x:c>
       <x:c r="J11" s="5" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K11" s="5" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="L11" s="5" t="s"/>
+      <x:c r="L11" s="5" t="n">
+        <x:v>359837000</x:v>
+      </x:c>
       <x:c r="M11" s="5" t="s"/>
       <x:c r="N11" s="5" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:14">
+      <x:c r="A12" s="5" t="n">
+        <x:v>4295867927</x:v>
+      </x:c>
+      <x:c r="B12" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C12" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D12" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E12" s="5" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F12" s="5" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G12" s="7" t="n">
+        <x:v>0.2916992</x:v>
+      </x:c>
+      <x:c r="H12" s="8">
+        <x:v>41891</x:v>
+      </x:c>
+      <x:c r="I12" s="9" t="n">
+        <x:v>2707</x:v>
+      </x:c>
+      <x:c r="J12" s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K12" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L12" s="5" t="n">
+        <x:v>15846852816.3897</x:v>
+      </x:c>
+      <x:c r="M12" s="5" t="s"/>
+      <x:c r="N12" s="5" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:14">
+      <x:c r="A13" s="5" t="n">
+        <x:v>4298361946</x:v>
+      </x:c>
+      <x:c r="B13" s="5" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C13" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D13" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E13" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F13" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G13" s="7" t="n">
+        <x:v>0.27758408</x:v>
+      </x:c>
+      <x:c r="H13" s="8">
+        <x:v>40599</x:v>
+      </x:c>
+      <x:c r="I13" s="9" t="n">
+        <x:v>3999</x:v>
+      </x:c>
+      <x:c r="J13" s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K13" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L13" s="5" t="n">
+        <x:v>62131000000</x:v>
+      </x:c>
+      <x:c r="M13" s="5" t="s"/>
+      <x:c r="N13" s="5" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:14">
+      <x:c r="A14" s="5" t="n">
+        <x:v>4295914921</x:v>
+      </x:c>
+      <x:c r="B14" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C14" s="5" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D14" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E14" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F14" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G14" s="7" t="n">
+        <x:v>0.27448824</x:v>
+      </x:c>
+      <x:c r="H14" s="8">
+        <x:v>43062</x:v>
+      </x:c>
+      <x:c r="I14" s="9" t="n">
+        <x:v>1536</x:v>
+      </x:c>
+      <x:c r="J14" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K14" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L14" s="5" t="n">
+        <x:v>220775000</x:v>
+      </x:c>
+      <x:c r="M14" s="5" t="n">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="N14" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
